--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92887DBE-8866-4CCD-92B4-969EDA267BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4B31D-7B03-4C56-8D7B-A16DA78AD501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Sl. No</t>
   </si>
@@ -338,6 +338,125 @@
 5. jquery practical examples
 6. creating the dynamic actions using bootstrap, javascript, jquery 
 7. debugging techniques of javascript</t>
+  </si>
+  <si>
+    <t>jquery
+1. jquery manipulation (get / set, insert, reemove, css class, style properties)
+2. jquery traversing, ancestors, descendants, siblings, 
+3. ajax</t>
+  </si>
+  <si>
+    <t>jquery
+1. jquery practical examples
+2. creating the dynamic actions using bootstrap, javascript, jquery 
+3. debugging techniques of javascript
+sass
+    Introducing SASS
+        Defining CSS Preprocessors
+        Why use Preprocessors?
+        What is SASS?
+        SCSS or Sass?
+    Setting up SASS
+        Environment Setup
+        Folder Structure
+        File Structure
+        Initializing our Project Directory
+        Install node-sass
+        Compiling Sass code to CSS
+        Live Reload</t>
+  </si>
+  <si>
+    <t>sass
+    Variables
+        What are Variables?
+        Variables in Action
+    Nesting
+        What is Nesting?
+        Nesting in Action
+    Mixins
+        What are Mixins?
+        Common Use Cases
+    Functions
+        What are Functions?
+        Function Examples
+    Partials and Importing
+        Using Partials
+        @import in CSS vs SASS
+    Inheritance
+        What is Inheritance?
+        Examples of Inheritance
+    The Ampersand Operator
+        What is the SASS Ampersand Operator?
+    Control Directives
+        @if and @else/li&gt;
+        @for
+        @while</t>
+  </si>
+  <si>
+    <t>sass
+    Interpolation
+        Understanding the Syntax
+        Why use Interpolation?
+    Placeholders
+        Why use Placeholders?
+    Structuring your SASS Projects
+        How do we structure our SASS projects?
+        Simple Structure
+        The 7-1 Pattern
+        Get up and running with 7-1
+    Setting up Media Queries with SASS
+        Setting up your mixins
+        Using a Mixin
+        Another way to set up our Mixins
+    Setting up the Perfect Build Process
+        What is a Build Process?
+        Creating the Build Process!
+less
+	introduction
+	installation</t>
+  </si>
+  <si>
+    <t>less
+	nested rules
+	nested directives
+	operations
+	escaping
+	functions
+	namespace
+	scope
+	importing
+	variables
+	extend
+	mixins
+	parametric
+	mixins as functions</t>
+  </si>
+  <si>
+    <t>less
+	passing rulesets to mixins
+	import directives
+	import options
+	mixin guard
+	css guard
+	loops
+	merge
+	parent selectors
+	functions   
+		misc functions
+		string functions</t>
+  </si>
+  <si>
+    <t>less
+		list functions
+		math functions
+		type functions
+		color definition functions
+		color operation
+		color blending
+	sample  project in less</t>
+  </si>
+  <si>
+    <t>reactjs follows - will update ..</t>
   </si>
 </sst>
 </file>
@@ -698,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,7 +1082,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -973,7 +1092,9 @@
       <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="E16" s="3">
         <v>0</v>
       </c>
@@ -981,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -991,7 +1112,9 @@
       <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
@@ -999,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -1009,7 +1132,9 @@
       <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
@@ -1017,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -1027,7 +1152,9 @@
       <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
@@ -1035,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1172,9 @@
       <c r="C20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
@@ -1069,7 +1198,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1079,7 +1208,9 @@
       <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
@@ -1087,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1228,9 @@
       <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
@@ -1115,7 +1248,9 @@
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>

--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D4B31D-7B03-4C56-8D7B-A16DA78AD501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7519223-F736-4501-AFCF-70F4DADAFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Sl. No</t>
   </si>
@@ -411,12 +411,27 @@
     Setting up the Perfect Build Process
         What is a Build Process?
         Creating the Build Process!
+javascript
+	promise
+	async &amp; await</t>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript
+		sets
+		maps
+		iterators &amp; iterables
+		generators
+		debugging
+		symbol
+	</t>
+  </si>
+  <si>
+    <t>javascript
+	reflect &amp; its functions
+	proxy
 less
 	introduction
-	installation</t>
-  </si>
-  <si>
-    <t>less
+	installation
 	nested rules
 	nested directives
 	operations
@@ -429,10 +444,7 @@
 	extend
 	mixins
 	parametric
-	mixins as functions</t>
-  </si>
-  <si>
-    <t>less
+	mixins as functions
 	passing rulesets to mixins
 	import directives
 	import options
@@ -440,23 +452,54 @@
 	css guard
 	loops
 	merge
-	parent selectors
+	parent selectors</t>
+  </si>
+  <si>
+    <t>less
 	functions   
 		misc functions
-		string functions</t>
-  </si>
-  <si>
-    <t>less
+		string functions
 		list functions
 		math functions
 		type functions
 		color definition functions
 		color operation
 		color blending
-	sample  project in less</t>
-  </si>
-  <si>
-    <t>reactjs follows - will update ..</t>
+	sample  project in less
+reactjs: 
+	introduction
+		what is reactjs
+		advantages of reactjs
+		what is single page application
+	project setup
+		installing the required node &amp; npm
+		create the first reactjs project</t>
+  </si>
+  <si>
+    <t>reactjs
+		working with 
+			html, 
+			css, 
+			scss, 
+			less
+			images, 
+			javascript
+		create the sample webpage using css
+		create the sample webpage using sass
+		create the sample webpage using less</t>
+  </si>
+  <si>
+    <t>creating the website with group of components and pages
+	implementation of routing
+	segregating the total project with components and pages
+	working with event handlings like click, blur, focus, change etc., 
+	working with property binding, 1. one way property binding, 2. two way property binding
+	working with forms &amp; its validation</t>
+  </si>
+  <si>
+    <t>implementing the life cycle hooks: 
+	1. class based life cycle hook
+	2. funtional based life cycle hook</t>
   </si>
 </sst>
 </file>
@@ -817,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1162,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" ht="160" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1198,7 +1241,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="180" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1238,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1248,7 +1291,7 @@
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="3">
@@ -1258,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="200" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1268,7 +1311,9 @@
       <c r="C26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
@@ -1276,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1286,7 +1331,9 @@
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>

--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7519223-F736-4501-AFCF-70F4DADAFC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5701E-F93C-4382-849D-F58070A2A4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
   <si>
     <t>Sl. No</t>
   </si>
@@ -501,12 +501,42 @@
 	1. class based life cycle hook
 	2. funtional based life cycle hook</t>
   </si>
+  <si>
+    <t xml:space="preserve">	reactjs: 
+		1. event handlers
+		2. passing parameters to methods
+		3. property binding ie., one way &amp; two way property binding
+		4. event handlers</t>
+  </si>
+  <si>
+    <t>5. forms &amp; its validation
+		6. file upload: single file upload &amp; multi file upload &amp; preview
+		7. styled components
+		8. contextApi</t>
+  </si>
+  <si>
+    <t>9. RestApi
+		10. Crud Operations
+		11. TodoApp</t>
+  </si>
+  <si>
+    <t>12. Multiple Components
+		13. Increment &amp; Decrement Functionality
+		14. Life Cycle Hooks
+		15. Class Based Life Cycle Hooks</t>
+  </si>
+  <si>
+    <t>16. Functional Based Life Cycle Hooks
+		17. Redux with Counter
+		18. Redux with Saga
+		19. Flux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,6 +562,86 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF002060"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,15 +679,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,30 +982,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="59.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="17"/>
+    <col min="2" max="2" width="13.90625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="59.1796875" style="7" customWidth="1"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -894,13 +1017,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12">
         <v>44648</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -914,13 +1037,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>44649</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -934,13 +1057,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="12">
         <v>44650</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -954,13 +1077,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>44651</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -974,13 +1097,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="12">
         <v>44652</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -994,486 +1117,496 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>44655</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="260" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>44656</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="260" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>44657</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <v>44658</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="200" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>44659</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="12">
         <v>44662</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="12">
         <v>44663</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="12">
         <v>44664</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="12">
         <v>44665</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="160" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="12">
         <v>44666</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="12">
         <v>44669</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="12">
         <v>44670</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="9" t="s">
         <v>47</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="12">
         <v>44671</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="200" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="12">
         <v>44672</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="12">
         <v>44673</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="12">
         <v>44676</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="E30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="100" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="12">
         <v>44677</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="12">
         <v>44678</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="12">
         <v>44679</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="12">
         <v>44680</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="12">
         <v>44683</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="3">
         <v>0</v>
       </c>
@@ -1482,16 +1615,16 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="12">
         <v>44684</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="3">
         <v>0</v>
       </c>
@@ -1500,16 +1633,16 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="12">
         <v>44685</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="3">
         <v>0</v>
       </c>
@@ -1518,16 +1651,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="12">
         <v>44686</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="3">
         <v>0</v>
       </c>
@@ -1536,16 +1669,16 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="12">
         <v>44687</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="3">
         <v>0</v>
       </c>
@@ -1554,32 +1687,32 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="12">
         <v>44690</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="3">
         <v>0</v>
       </c>
@@ -1588,16 +1721,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="12">
         <v>44691</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="3">
         <v>0</v>
       </c>
@@ -1606,16 +1739,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="12">
         <v>44692</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="3">
         <v>0</v>
       </c>
@@ -1624,16 +1757,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="12">
         <v>44693</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="3">
         <v>0</v>
       </c>
@@ -1642,16 +1775,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="12">
         <v>44694</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="3">
         <v>0</v>
       </c>
@@ -1660,32 +1793,32 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="12">
         <v>44697</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -1694,16 +1827,16 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="12">
         <v>44698</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="3">
         <v>0</v>
       </c>
@@ -1712,16 +1845,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="12">
         <v>44699</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="3">
         <v>0</v>
       </c>
@@ -1730,16 +1863,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="12">
         <v>44700</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="3">
         <v>0</v>
       </c>
@@ -1748,16 +1881,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="12">
         <v>44701</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="3">
         <v>0</v>
       </c>
@@ -1766,32 +1899,32 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="12">
         <v>44704</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="3">
         <v>0</v>
       </c>
@@ -1800,16 +1933,16 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="12">
         <v>44705</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="3">
         <v>0</v>
       </c>
@@ -1818,25 +1951,25 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="2">
         <f>SUM(E2:E59)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F61" s="2">
         <f>SUM(F2:F59)</f>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5701E-F93C-4382-849D-F58070A2A4B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77983413-99C4-48E6-A9FE-647761CF8A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>Sl. No</t>
   </si>
@@ -530,6 +530,37 @@
 		17. Redux with Counter
 		18. Redux with Saga
 		19. Flux</t>
+  </si>
+  <si>
+    <t>note: this week from 2nd may to 6th may, - apart with the given course contents completion additionall, (reactjs additional concepts include - its just to expand / eplore the ideas about reactjs - depends up on the time, will cover to the  max level)
+1. material ui template design with gallery showcase
+2. observables &amp; subscribe with / without restapi
+3. redux: restapi, counter,</t>
+  </si>
+  <si>
+    <t>4. add to cart &amp; increment &amp; decrement functionality
+5. protected routing
+6. deployment of react application in live
+7. autocomple application</t>
+  </si>
+  <si>
+    <t>8. unit test or isolated test using jest and enzyme
+9. redux with saga api 
+10. shopping cart application
+11. diff., between function components and class components</t>
+  </si>
+  <si>
+    <t>12. react - fragments
+13. add / remove multiple input fields dynamically (or) add / remove table rows dynamically
+14. conditional rendering
+15. react 'lists' - arrayElement(), arrayIndex(), arrayObject()</t>
+  </si>
+  <si>
+    <t>16. life cycle methods
+17. create weather report (or) create charts
+18. create accordion
+19. photo gallery with filtering
+20. incrementing / decrementing with functional life cycle hooks</t>
   </si>
 </sst>
 </file>
@@ -679,17 +710,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -700,6 +725,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -982,31 +1010,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="17"/>
-    <col min="2" max="2" width="13.90625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="59.1796875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="13"/>
+    <col min="2" max="2" width="13.90625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="59.1796875" style="16" customWidth="1"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1016,17 +1044,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12">
+    <row r="2" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
         <v>44648</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>53</v>
       </c>
       <c r="E2" s="3">
@@ -1036,17 +1064,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>44649</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="15" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="3">
@@ -1056,17 +1084,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="280" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>44650</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="3">
@@ -1076,17 +1104,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="360" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>44651</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="3">
@@ -1096,17 +1124,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>44652</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="3">
@@ -1117,32 +1145,32 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>44655</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
       <c r="E9" s="3">
@@ -1152,17 +1180,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="260" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>44656</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E10" s="3">
@@ -1172,17 +1200,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="260" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>44657</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="3">
@@ -1192,17 +1220,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>44658</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="15" t="s">
         <v>61</v>
       </c>
       <c r="E12" s="3">
@@ -1212,17 +1240,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="200" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>44659</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="3">
@@ -1233,32 +1261,32 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="100" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>44662</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="3">
@@ -1268,17 +1296,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="400" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>44663</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="3">
@@ -1288,17 +1316,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="8">
         <v>44664</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="3">
@@ -1308,17 +1336,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>44665</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="3">
@@ -1328,17 +1356,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="160" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16" t="s">
+    <row r="20" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <v>44666</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="3">
@@ -1349,32 +1377,32 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>44669</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="15" t="s">
         <v>68</v>
       </c>
       <c r="E23" s="3">
@@ -1384,17 +1412,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="8">
         <v>44670</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="15" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="3">
@@ -1404,17 +1432,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="220" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>44671</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="3">
@@ -1424,17 +1452,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="200" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="8">
         <v>44672</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E26" s="3">
@@ -1444,17 +1472,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>44673</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="15" t="s">
         <v>72</v>
       </c>
       <c r="E27" s="3">
@@ -1465,32 +1493,32 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="16"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="16" t="s">
+    <row r="30" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="8">
         <v>44676</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E30" s="3">
@@ -1500,17 +1528,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="100" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>44677</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="3">
@@ -1520,17 +1548,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="8">
         <v>44678</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="3">
@@ -1540,17 +1568,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>44679</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="15" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="3">
@@ -1560,17 +1588,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="8">
         <v>44680</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="3">
@@ -1581,138 +1609,148 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="16"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="16"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>44683</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="E37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="8">
         <v>44684</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="8">
         <v>44685</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="8">
         <v>44686</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <v>44687</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="16"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="16"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
     <row r="44" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="8">
         <v>44690</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="3">
         <v>0</v>
       </c>
@@ -1721,16 +1759,16 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="8">
         <v>44691</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="3">
         <v>0</v>
       </c>
@@ -1739,16 +1777,16 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="8">
         <v>44692</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="3">
         <v>0</v>
       </c>
@@ -1757,16 +1795,16 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="8">
         <v>44693</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="3">
         <v>0</v>
       </c>
@@ -1775,16 +1813,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="8">
         <v>44694</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="3">
         <v>0</v>
       </c>
@@ -1793,32 +1831,32 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="16"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="15"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="16"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="6"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>44697</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="3">
         <v>0</v>
       </c>
@@ -1827,16 +1865,16 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="8">
         <v>44698</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="3">
         <v>0</v>
       </c>
@@ -1845,16 +1883,16 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="8">
         <v>44699</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="15"/>
       <c r="E53" s="3">
         <v>0</v>
       </c>
@@ -1863,16 +1901,16 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="8">
         <v>44700</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="3">
         <v>0</v>
       </c>
@@ -1881,16 +1919,16 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="8">
         <v>44701</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="3">
         <v>0</v>
       </c>
@@ -1899,32 +1937,32 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="16"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="6"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="16"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="6"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="8">
         <v>44704</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="3">
         <v>0</v>
       </c>
@@ -1933,16 +1971,16 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="8">
         <v>44705</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="3">
         <v>0</v>
       </c>
@@ -1951,25 +1989,25 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="16"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="6"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="16"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="6"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="15"/>
       <c r="E61" s="2">
         <f>SUM(E2:E59)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F61" s="2">
         <f>SUM(F2:F59)</f>
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77983413-99C4-48E6-A9FE-647761CF8A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AF8FC-2B4F-42AF-9174-B585EAE1D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
   <si>
     <t>Sl. No</t>
   </si>
@@ -561,6 +561,47 @@
 18. create accordion
 19. photo gallery with filtering
 20. incrementing / decrementing with functional life cycle hooks</t>
+  </si>
+  <si>
+    <t>ReactJs: Unit Test with Form
+AEM:
+Introduction
+Installation 
+Browse Application /Browse different consoles
+Authoring( Edit title component)/Publishing
+Architecture stack</t>
+  </si>
+  <si>
+    <t>Exploring different page properties
+Eclipse installation with AEM plugin
+Create project
+Create Static Template
+Create page rendering Component
+Create sample website structure</t>
+  </si>
+  <si>
+    <t>Using basic Sightly APIs
+Open pages and consoles in touch ui and classic ui.
+Modularize page rendering component.
+Apache Sling Resolution.
+Inheritance of components.
+Build dynamic navigation component.
+Use Logger during component development.</t>
+  </si>
+  <si>
+    <t>create Training-title component.
+Edit Dialogs (Touch UI classic UI) ,Edit config ,Inplace Edit config.
+Create Logo component
+Design Dialogs
+Foundation components .</t>
+  </si>
+  <si>
+    <t>Parsys component(Responsive grid).
+Iparsys components
+Breadcrumbs ,Create Dynamic Image component.
+Complex components( Multifield ,Accordion).
+Internationalization.
+Client libraries(using in pages as well as dialogs).</t>
   </si>
 </sst>
 </file>
@@ -1010,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1750,12 +1791,14 @@
       <c r="C44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="15"/>
+      <c r="D44" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1768,12 +1811,14 @@
       <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="15"/>
+      <c r="D45" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1786,12 +1831,14 @@
       <c r="C46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="15"/>
+      <c r="D46" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1804,12 +1851,14 @@
       <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1822,12 +1871,14 @@
       <c r="C48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="15"/>
+      <c r="D48" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -2003,11 +2054,11 @@
       <c r="D61" s="15"/>
       <c r="E61" s="2">
         <f>SUM(E2:E59)</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2">
         <f>SUM(F2:F59)</f>
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Wise_Topics_Planning.xlsx
+++ b/Daily_Wise_Topics_Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ramakrishna\trainings\virtuezeal_ui_training\training_contents\virtuezeal_uitraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624AF8FC-2B4F-42AF-9174-B585EAE1D91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E1C5D-EC31-4329-BBE3-5B7C9191199D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>Sl. No</t>
   </si>
@@ -602,6 +602,27 @@
 Complex components( Multifield ,Accordion).
 Internationalization.
 Client libraries(using in pages as well as dialogs).</t>
+  </si>
+  <si>
+    <t>graphql concepts, nodejs remaining concepts</t>
+  </si>
+  <si>
+    <t>nodejs remaining concepts, vuejs</t>
+  </si>
+  <si>
+    <t>vuejs componnents</t>
+  </si>
+  <si>
+    <t>vuejs spa, pwa</t>
+  </si>
+  <si>
+    <t>vuejs graphql</t>
+  </si>
+  <si>
+    <t>cont., with aem, remaining concepts</t>
+  </si>
+  <si>
+    <t>do.,</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1073,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1907,12 +1928,14 @@
       <c r="C51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D51" s="15"/>
+      <c r="D51" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1925,12 +1948,14 @@
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="15"/>
+      <c r="D52" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1943,12 +1968,14 @@
       <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="E53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1961,12 +1988,14 @@
       <c r="C54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -1979,12 +2008,14 @@
       <c r="C55" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="E55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20" x14ac:dyDescent="0.55000000000000004">
@@ -2013,7 +2044,9 @@
       <c r="C58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="15"/>
+      <c r="D58" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
@@ -2031,7 +2064,9 @@
       <c r="C59" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E59" s="3">
         <v>0</v>
       </c>
@@ -2054,11 +2089,11 @@
       <c r="D61" s="15"/>
       <c r="E61" s="2">
         <f>SUM(E2:E59)</f>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F61" s="2">
         <f>SUM(F2:F59)</f>
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
